--- a/1.xlsx
+++ b/1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="18255" windowHeight="11595" tabRatio="507" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="18255" windowHeight="11595" tabRatio="507"/>
   </bookViews>
   <sheets>
     <sheet name="speed flag" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Courier New"/>
+      <name val="Consolas"/>
       <family val="3"/>
     </font>
   </fonts>
@@ -140,18 +140,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,18 +527,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A3:A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58" style="1" customWidth="1"/>
+    <col min="1" max="1" width="58" style="2" customWidth="1"/>
     <col min="5" max="5" width="26.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" t="s">
@@ -554,120 +557,120 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="str">
-        <f>CONCATENATE("0, .Beacon 8010; -1; 0; ",TEXT(C3,"000"),TEXT(B3,"000000"),",")</f>
-        <v>0, .Beacon 8010; -1; 0; 045000000,</v>
+      <c r="A3" s="4" t="str">
+        <f t="shared" ref="A3:A12" si="0">CONCATENATE("0, .Beacon 8010; -1; 0; ",TEXT(C3,"000"),TEXT(B3,"000000"),",")</f>
+        <v>0, .Beacon 8010; -1; 0; 080000000,</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8010; -1; 0; 045005545,</v>
+      </c>
+      <c r="B4">
+        <v>5545</v>
+      </c>
+      <c r="C4">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="str">
-        <f>CONCATENATE("0, .Beacon 8010; -1; 0; ",TEXT(C4,"000"),TEXT(B4,"000000"),",")</f>
-        <v>0, .Beacon 8010; -1; 0; 065000050,</v>
-      </c>
-      <c r="B4">
-        <v>50</v>
-      </c>
-      <c r="C4">
-        <v>65</v>
-      </c>
-    </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="str">
-        <f>CONCATENATE("0, .Beacon 8010; -1; 0; ",TEXT(C5,"000"),TEXT(B5,"000000"),",")</f>
-        <v>0, .Beacon 8010; -1; 0; 080001200,</v>
+      <c r="A5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8010; -1; 0; 080006025,</v>
       </c>
       <c r="B5">
-        <v>1200</v>
+        <v>6025</v>
       </c>
       <c r="C5">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="str">
-        <f>CONCATENATE("0, .Beacon 8010; -1; 0; ",TEXT(C6,"000"),TEXT(B6,"000000"),",")</f>
-        <v>0, .Beacon 8010; -1; 0; 050002950,</v>
+      <c r="A6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8010; -1; 0; 120008825,</v>
       </c>
       <c r="B6">
-        <v>2950</v>
+        <v>8825</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="str">
-        <f>CONCATENATE("0, .Beacon 8010; -1; 0; ",TEXT(C7,"000"),TEXT(B7,"000000"),",")</f>
-        <v>0, .Beacon 8010; -1; 0; 080003850,</v>
+      <c r="A7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8010; -1; 0; 080012600,</v>
       </c>
       <c r="B7">
-        <v>3850</v>
+        <v>12600</v>
       </c>
       <c r="C7">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="str">
-        <f>CONCATENATE("0, .Beacon 8010; -1; 0; ",TEXT(C8,"000"),TEXT(B8,"000000"),",")</f>
-        <v>0, .Beacon 8010; -1; 0; 075005975,</v>
+      <c r="A8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8010; -1; 0; 050015850,</v>
       </c>
       <c r="B8">
-        <v>5975</v>
+        <v>15850</v>
       </c>
       <c r="C8">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="str">
-        <f>CONCATENATE("0, .Beacon 8010; -1; 0; ",TEXT(C9,"000"),TEXT(B9,"000000"),",")</f>
-        <v>0, .Beacon 8010; -1; 0; 065007725,</v>
+      <c r="A9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8010; -1; 0; 045016350,</v>
       </c>
       <c r="B9">
-        <v>7725</v>
+        <v>16350</v>
       </c>
       <c r="C9">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="str">
-        <f>CONCATENATE("0, .Beacon 8010; -1; 0; ",TEXT(C10,"000"),TEXT(B10,"000000"),",")</f>
-        <v>0, .Beacon 8010; -1; 0; 080008200,</v>
+      <c r="A10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8010; -1; 0; 080016850,</v>
       </c>
       <c r="B10">
-        <v>8200</v>
+        <v>16850</v>
       </c>
       <c r="C10">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="str">
-        <f>CONCATENATE("0, .Beacon 8010; -1; 0; ",TEXT(C11,"000"),TEXT(B11,"000000"),",")</f>
-        <v>0, .Beacon 8010; -1; 0; 045008950,</v>
+      <c r="A11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8010; -1; 0; 045021175,</v>
       </c>
       <c r="B11">
-        <v>8950</v>
+        <v>21175</v>
       </c>
       <c r="C11">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="str">
-        <f>CONCATENATE("0, .Beacon 8010; -1; 0; ",TEXT(C12,"000"),TEXT(B12,"000000"),",")</f>
-        <v>0, .Beacon 8010; -1; 0; 000009275,</v>
+      <c r="A12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8010; -1; 0; 000021825,</v>
       </c>
       <c r="B12">
-        <v>9275</v>
+        <v>21825</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -682,19 +685,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.75" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B1" t="s">
@@ -705,7 +708,6 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>4</v>
       </c>
@@ -720,8 +722,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="str">
-        <f>CONCATENATE(IF(COUNT(E3) &gt; 0, E3, "0"),", .Beacon 8020; -1; 0; ",TEXT(C3,"0"),TEXT(D3,"0"),TEXT(B3,"000000"),",")</f>
+      <c r="A3" s="4" t="str">
+        <f t="shared" ref="A3:A16" si="0">CONCATENATE(IF(COUNT(E3) &gt; 0, E3, "0"),", .Beacon 8020; -1; 0; ",TEXT(C3,"0"),TEXT(D3,"0"),TEXT(B3,"000000"),",")</f>
         <v>0, .Beacon 8020; -1; 0; 10000025,</v>
       </c>
       <c r="B3">
@@ -735,12 +737,12 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="str">
-        <f>CONCATENATE(IF(COUNT(E4) &gt; 0, E4, "0"),", .Beacon 8020; -1; 0; ",TEXT(C4,"0"),TEXT(D4,"0"),TEXT(B4,"000000"),",")</f>
-        <v>0, .Beacon 8020; -1; 0; 10000825,</v>
+      <c r="A4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8020; -1; 0; 10001950,</v>
       </c>
       <c r="B4">
-        <v>825</v>
+        <v>1950</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -750,12 +752,12 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="str">
-        <f>CONCATENATE(IF(COUNT(E5) &gt; 0, E5, "0"),", .Beacon 8020; -1; 0; ",TEXT(C5,"0"),TEXT(D5,"0"),TEXT(B5,"000000"),",")</f>
-        <v>0, .Beacon 8020; -1; 0; 10001750,</v>
+      <c r="A5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8020; -1; 0; 10003425,</v>
       </c>
       <c r="B5">
-        <v>1750</v>
+        <v>3425</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -765,12 +767,12 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="str">
-        <f>CONCATENATE(IF(COUNT(E6) &gt; 0, E6, "0"),", .Beacon 8020; -1; 0; ",TEXT(C6,"0"),TEXT(D6,"0"),TEXT(B6,"000000"),",")</f>
-        <v>0, .Beacon 8020; -1; 0; 10002950,</v>
+      <c r="A6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8020; -1; 0; 10004850,</v>
       </c>
       <c r="B6">
-        <v>2950</v>
+        <v>4850</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -780,130 +782,146 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="str">
-        <f>CONCATENATE(IF(COUNT(E7) &gt; 0, E7, "0"),", .Beacon 8020; -1; 0; ",TEXT(C7,"0"),TEXT(D7,"0"),TEXT(B7,"000000"),",")</f>
-        <v>0, .Beacon 8020; -1; 0; -10003400,</v>
+      <c r="A7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8020; -1; 0; 10005875,</v>
       </c>
       <c r="B7">
-        <v>3400</v>
+        <v>5875</v>
       </c>
       <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8020; -1; 0; 10007650,</v>
+      </c>
+      <c r="B8">
+        <v>7650</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8020; -1; 0; 10008950,</v>
+      </c>
+      <c r="B9">
+        <v>8950</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8020; -1; 0; 10012725,</v>
+      </c>
+      <c r="B10">
+        <v>12725</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8020; -1; 0; -20013725,</v>
+      </c>
+      <c r="B11">
+        <v>13725</v>
+      </c>
+      <c r="C11">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8020; -1; 0; -20015150,</v>
+      </c>
+      <c r="B12">
+        <v>15150</v>
+      </c>
+      <c r="C12">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8020; -1; 0; 10015825,</v>
+      </c>
+      <c r="B13">
+        <v>15825</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8020; -1; 0; 10019150,</v>
+      </c>
+      <c r="B14">
+        <v>19150</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8020; -1; 0; 00021800,</v>
+      </c>
+      <c r="B15">
+        <v>21800</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>21450, .Beacon 8020; -1; 0; -10021800,</v>
+      </c>
+      <c r="B16">
+        <v>21800</v>
+      </c>
+      <c r="C16">
         <v>-1</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="str">
-        <f>CONCATENATE(IF(COUNT(E8) &gt; 0, E8, "0"),", .Beacon 8020; -1; 0; ",TEXT(C8,"0"),TEXT(D8,"0"),TEXT(B8,"000000"),",")</f>
-        <v>0, .Beacon 8020; -1; 0; -10003850,</v>
-      </c>
-      <c r="B8">
-        <v>3850</v>
-      </c>
-      <c r="C8">
-        <v>-1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="str">
-        <f>CONCATENATE(IF(COUNT(E9) &gt; 0, E9, "0"),", .Beacon 8020; -1; 0; ",TEXT(C9,"0"),TEXT(D9,"0"),TEXT(B9,"000000"),",")</f>
-        <v>0, .Beacon 8020; -1; 0; 10004750,</v>
-      </c>
-      <c r="B9">
-        <v>4750</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="str">
-        <f>CONCATENATE(IF(COUNT(E10) &gt; 0, E10, "0"),", .Beacon 8020; -1; 0; ",TEXT(C10,"0"),TEXT(D10,"0"),TEXT(B10,"000000"),",")</f>
-        <v>0, .Beacon 8020; -1; 0; -20005450,</v>
-      </c>
-      <c r="B10">
-        <v>5450</v>
-      </c>
-      <c r="C10">
-        <v>-2</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="str">
-        <f>CONCATENATE(IF(COUNT(E11) &gt; 0, E11, "0"),", .Beacon 8020; -1; 0; ",TEXT(C11,"0"),TEXT(D11,"0"),TEXT(B11,"000000"),",")</f>
-        <v>0, .Beacon 8020; -1; 0; 10006725,</v>
-      </c>
-      <c r="B11">
-        <v>6725</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="str">
-        <f>CONCATENATE(IF(COUNT(E12) &gt; 0, E12, "0"),", .Beacon 8020; -1; 0; ",TEXT(C12,"0"),TEXT(D12,"0"),TEXT(B12,"000000"),",")</f>
-        <v>0, .Beacon 8020; -1; 0; 10007725,</v>
-      </c>
-      <c r="B12">
-        <v>7725</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="str">
-        <f>CONCATENATE(IF(COUNT(E13) &gt; 0, E13, "0"),", .Beacon 8020; -1; 0; ",TEXT(C13,"0"),TEXT(D13,"0"),TEXT(B13,"000000"),",")</f>
-        <v>0, .Beacon 8020; -1; 0; -20009250,</v>
-      </c>
-      <c r="B13">
-        <v>9250</v>
-      </c>
-      <c r="C13">
-        <v>-2</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="str">
-        <f>CONCATENATE(IF(COUNT(E14) &gt; 0, E14, "0"),", .Beacon 8020; -1; 0; ",TEXT(C14,"0"),TEXT(D14,"0"),TEXT(B14,"000000"),",")</f>
-        <v>8950, .Beacon 8020; -1; 0; 10009250,</v>
-      </c>
-      <c r="B14">
-        <v>9250</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>8950</v>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>21450</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/1.xlsx
+++ b/1.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="18255" windowHeight="11595" tabRatio="507"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="8940" windowHeight="2100" tabRatio="507" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="speed flag" sheetId="1" r:id="rId1"/>
     <sheet name="stop mem" sheetId="4" r:id="rId2"/>
+    <sheet name="gradient" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +57,13 @@
   </si>
   <si>
     <t>posToInstall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(+/-)XXXYYYYYY     X=pitch Y=trackpos</t>
+  </si>
+  <si>
+    <t>pitch (per mill)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,7 +535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -688,6 +696,249 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection sqref="A1:E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.75" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="str">
+        <f t="shared" ref="A3:A16" si="0">CONCATENATE(IF(COUNT(E3) &gt; 0, E3, "0"),", .Beacon 8020; -1; 0; ",TEXT(C3,"0"),TEXT(D3,"0"),TEXT(B3,"000000"),",")</f>
+        <v>0, .Beacon 8020; -1; 0; 10000025,</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8020; -1; 0; 10001950,</v>
+      </c>
+      <c r="B4">
+        <v>1950</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8020; -1; 0; 10003425,</v>
+      </c>
+      <c r="B5">
+        <v>3425</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8020; -1; 0; 10004850,</v>
+      </c>
+      <c r="B6">
+        <v>4850</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8020; -1; 0; 10005875,</v>
+      </c>
+      <c r="B7">
+        <v>5875</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8020; -1; 0; 10007650,</v>
+      </c>
+      <c r="B8">
+        <v>7650</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8020; -1; 0; 10008950,</v>
+      </c>
+      <c r="B9">
+        <v>8950</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8020; -1; 0; 10012725,</v>
+      </c>
+      <c r="B10">
+        <v>12725</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8020; -1; 0; -20013725,</v>
+      </c>
+      <c r="B11">
+        <v>13725</v>
+      </c>
+      <c r="C11">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8020; -1; 0; -20015150,</v>
+      </c>
+      <c r="B12">
+        <v>15150</v>
+      </c>
+      <c r="C12">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8020; -1; 0; 10015825,</v>
+      </c>
+      <c r="B13">
+        <v>15825</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8020; -1; 0; 10019150,</v>
+      </c>
+      <c r="B14">
+        <v>19150</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8020; -1; 0; 00021800,</v>
+      </c>
+      <c r="B15">
+        <v>21800</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>21450, .Beacon 8020; -1; 0; -10021800,</v>
+      </c>
+      <c r="B16">
+        <v>21800</v>
+      </c>
+      <c r="C16">
+        <v>-1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>21450</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -704,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -712,10 +963,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -723,200 +971,98 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="str">
-        <f t="shared" ref="A3:A16" si="0">CONCATENATE(IF(COUNT(E3) &gt; 0, E3, "0"),", .Beacon 8020; -1; 0; ",TEXT(C3,"0"),TEXT(D3,"0"),TEXT(B3,"000000"),",")</f>
-        <v>0, .Beacon 8020; -1; 0; 10000025,</v>
+        <f>CONCATENATE(IF(COUNT(E3)&gt;0,E3,"0"),", .Beacon 8021; -1; 0; ",TEXT(C3,"0"),TEXT(B3,"000000"),",")</f>
+        <v>0, .Beacon 8021; -1; 0; -15000175,</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>0, .Beacon 8020; -1; 0; 10001950,</v>
+        <f t="shared" ref="A4:A10" si="0">CONCATENATE(IF(COUNT(E4)&gt;0,E4,"0"),", .Beacon 8021; -1; 0; ",TEXT(C4,"0"),TEXT(B4,"000000"),",")</f>
+        <v>0, .Beacon 8021; -1; 0; -30000200,</v>
       </c>
       <c r="B4">
-        <v>1950</v>
+        <v>200</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>0, .Beacon 8020; -1; 0; 10003425,</v>
+        <v>0, .Beacon 8021; -1; 0; -15000425,</v>
       </c>
       <c r="B5">
-        <v>3425</v>
+        <v>425</v>
       </c>
       <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>0, .Beacon 8020; -1; 0; 10004850,</v>
+        <v>0, .Beacon 8021; -1; 0; 0000450,</v>
       </c>
       <c r="B6">
-        <v>4850</v>
+        <v>450</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>0, .Beacon 8020; -1; 0; 10005875,</v>
+        <v>0, .Beacon 8021; -1; 0; 5001375,</v>
       </c>
       <c r="B7">
-        <v>5875</v>
+        <v>1375</v>
       </c>
       <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>0, .Beacon 8020; -1; 0; 10007650,</v>
+        <v>0, .Beacon 8021; -1; 0; 10001400,</v>
       </c>
       <c r="B8">
-        <v>7650</v>
+        <v>1400</v>
       </c>
       <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>0, .Beacon 8020; -1; 0; 10008950,</v>
+        <v>0, .Beacon 8021; -1; 0; 5001850,</v>
       </c>
       <c r="B9">
-        <v>8950</v>
+        <v>1850</v>
       </c>
       <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>0, .Beacon 8020; -1; 0; 10012725,</v>
+        <v>0, .Beacon 8021; -1; 0; 0001875,</v>
       </c>
       <c r="B10">
-        <v>12725</v>
+        <v>1875</v>
       </c>
       <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>0, .Beacon 8020; -1; 0; -20013725,</v>
-      </c>
-      <c r="B11">
-        <v>13725</v>
-      </c>
-      <c r="C11">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>0, .Beacon 8020; -1; 0; -20015150,</v>
-      </c>
-      <c r="B12">
-        <v>15150</v>
-      </c>
-      <c r="C12">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>0, .Beacon 8020; -1; 0; 10015825,</v>
-      </c>
-      <c r="B13">
-        <v>15825</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>0, .Beacon 8020; -1; 0; 10019150,</v>
-      </c>
-      <c r="B14">
-        <v>19150</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>0, .Beacon 8020; -1; 0; 00021800,</v>
-      </c>
-      <c r="B15">
-        <v>21800</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>21450, .Beacon 8020; -1; 0; -10021800,</v>
-      </c>
-      <c r="B16">
-        <v>21800</v>
-      </c>
-      <c r="C16">
-        <v>-1</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>21450</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/1.xlsx
+++ b/1.xlsx
@@ -936,10 +936,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E255"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -972,10 +972,10 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="str">
         <f>CONCATENATE(IF(COUNT(E3)&gt;0,E3,"0"),", .Beacon 8021; -1; 0; ",TEXT(C3,"0"),TEXT(B3,"000000"),",")</f>
-        <v>0, .Beacon 8021; -1; 0; -15000175,</v>
+        <v>0, .Beacon 8021; -1; 0; -15000375,</v>
       </c>
       <c r="B3">
-        <v>175</v>
+        <v>375</v>
       </c>
       <c r="C3">
         <v>-15</v>
@@ -983,11 +983,11 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="str">
-        <f t="shared" ref="A4:A10" si="0">CONCATENATE(IF(COUNT(E4)&gt;0,E4,"0"),", .Beacon 8021; -1; 0; ",TEXT(C4,"0"),TEXT(B4,"000000"),",")</f>
-        <v>0, .Beacon 8021; -1; 0; -30000200,</v>
+        <f t="shared" ref="A4:A67" si="0">CONCATENATE(IF(COUNT(E4)&gt;0,E4,"0"),", .Beacon 8021; -1; 0; ",TEXT(C4,"0"),TEXT(B4,"000000"),",")</f>
+        <v>0, .Beacon 8021; -1; 0; -30000400,</v>
       </c>
       <c r="B4">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C4">
         <v>-30</v>
@@ -996,10 +996,10 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>0, .Beacon 8021; -1; 0; -15000425,</v>
+        <v>0, .Beacon 8021; -1; 0; -15000675,</v>
       </c>
       <c r="B5">
-        <v>425</v>
+        <v>675</v>
       </c>
       <c r="C5">
         <v>-15</v>
@@ -1008,10 +1008,10 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>0, .Beacon 8021; -1; 0; 0000450,</v>
+        <v>0, .Beacon 8021; -1; 0; 0000700,</v>
       </c>
       <c r="B6">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1020,49 +1020,1963 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>0, .Beacon 8021; -1; 0; 5001375,</v>
+        <v>0, .Beacon 8021; -1; 0; -15003525,</v>
       </c>
       <c r="B7">
-        <v>1375</v>
+        <v>3525</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>0, .Beacon 8021; -1; 0; 10001400,</v>
+        <v>0, .Beacon 8021; -1; 0; -30003550,</v>
       </c>
       <c r="B8">
-        <v>1400</v>
+        <v>3550</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>0, .Beacon 8021; -1; 0; 5001850,</v>
+        <v>0, .Beacon 8021; -1; 0; -15004000,</v>
       </c>
       <c r="B9">
-        <v>1850</v>
+        <v>4000</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>0, .Beacon 8021; -1; 0; 0001875,</v>
+        <v>0, .Beacon 8021; -1; 0; 0004025,</v>
       </c>
       <c r="B10">
-        <v>1875</v>
+        <v>4025</v>
       </c>
       <c r="C10">
         <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; -15005000,</v>
+      </c>
+      <c r="B11">
+        <v>5000</v>
+      </c>
+      <c r="C11">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; -30005025,</v>
+      </c>
+      <c r="B12">
+        <v>5025</v>
+      </c>
+      <c r="C12">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; -15005200,</v>
+      </c>
+      <c r="B13">
+        <v>5200</v>
+      </c>
+      <c r="C13">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; 0005225,</v>
+      </c>
+      <c r="B14">
+        <v>5225</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; 15005325,</v>
+      </c>
+      <c r="B15">
+        <v>5325</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; 30005350,</v>
+      </c>
+      <c r="B16">
+        <v>5350</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; 15005500,</v>
+      </c>
+      <c r="B17">
+        <v>5500</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; 0005525,</v>
+      </c>
+      <c r="B18">
+        <v>5525</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; 15006875,</v>
+      </c>
+      <c r="B19">
+        <v>6875</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; 30006900,</v>
+      </c>
+      <c r="B20">
+        <v>6900</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; 15007475,</v>
+      </c>
+      <c r="B21">
+        <v>7475</v>
+      </c>
+      <c r="C21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; 0007500,</v>
+      </c>
+      <c r="B22">
+        <v>7500</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; -15007775,</v>
+      </c>
+      <c r="B23">
+        <v>7775</v>
+      </c>
+      <c r="C23">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; -30007800,</v>
+      </c>
+      <c r="B24">
+        <v>7800</v>
+      </c>
+      <c r="C24">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; -15008175,</v>
+      </c>
+      <c r="B25">
+        <v>8175</v>
+      </c>
+      <c r="C25">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; 0008200,</v>
+      </c>
+      <c r="B26">
+        <v>8200</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; 0009600,</v>
+      </c>
+      <c r="B27">
+        <v>9600</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; -30009625,</v>
+      </c>
+      <c r="B28">
+        <v>9625</v>
+      </c>
+      <c r="C28">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; -15010025,</v>
+      </c>
+      <c r="B29">
+        <v>10025</v>
+      </c>
+      <c r="C29">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; 0010050,</v>
+      </c>
+      <c r="B30">
+        <v>10050</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; 15011500,</v>
+      </c>
+      <c r="B31">
+        <v>11500</v>
+      </c>
+      <c r="C31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; 30011525,</v>
+      </c>
+      <c r="B32">
+        <v>11525</v>
+      </c>
+      <c r="C32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; 15012325,</v>
+      </c>
+      <c r="B33">
+        <v>12325</v>
+      </c>
+      <c r="C33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; 0012350,</v>
+      </c>
+      <c r="B34">
+        <v>12350</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; -15013100,</v>
+      </c>
+      <c r="B35">
+        <v>13100</v>
+      </c>
+      <c r="C35">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; -30013125,</v>
+      </c>
+      <c r="B36">
+        <v>13125</v>
+      </c>
+      <c r="C36">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; -15013400,</v>
+      </c>
+      <c r="B37">
+        <v>13400</v>
+      </c>
+      <c r="C37">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; 0013425,</v>
+      </c>
+      <c r="B38">
+        <v>13425</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; 15014400,</v>
+      </c>
+      <c r="B39">
+        <v>14400</v>
+      </c>
+      <c r="C39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; 30014425,</v>
+      </c>
+      <c r="B40">
+        <v>14425</v>
+      </c>
+      <c r="C40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; 15014650,</v>
+      </c>
+      <c r="B41">
+        <v>14650</v>
+      </c>
+      <c r="C41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; 0014675,</v>
+      </c>
+      <c r="B42">
+        <v>14675</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; -15016125,</v>
+      </c>
+      <c r="B43">
+        <v>16125</v>
+      </c>
+      <c r="C43">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; -30016150,</v>
+      </c>
+      <c r="B44">
+        <v>16150</v>
+      </c>
+      <c r="C44">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; -15016425,</v>
+      </c>
+      <c r="B45">
+        <v>16425</v>
+      </c>
+      <c r="C45">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; 0016450,</v>
+      </c>
+      <c r="B46">
+        <v>16450</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; -15019175,</v>
+      </c>
+      <c r="B47">
+        <v>19175</v>
+      </c>
+      <c r="C47">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; -30019200,</v>
+      </c>
+      <c r="B48">
+        <v>19200</v>
+      </c>
+      <c r="C48">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; -15019525,</v>
+      </c>
+      <c r="B49">
+        <v>19525</v>
+      </c>
+      <c r="C49">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; 0019550,</v>
+      </c>
+      <c r="B50">
+        <v>19550</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; -15019800,</v>
+      </c>
+      <c r="B51">
+        <v>19800</v>
+      </c>
+      <c r="C51">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; -30019825,</v>
+      </c>
+      <c r="B52">
+        <v>19825</v>
+      </c>
+      <c r="C52">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; -15020250,</v>
+      </c>
+      <c r="B53">
+        <v>20250</v>
+      </c>
+      <c r="C53">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; 0020275,</v>
+      </c>
+      <c r="B54">
+        <v>20275</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; 15020750,</v>
+      </c>
+      <c r="B55">
+        <v>20750</v>
+      </c>
+      <c r="C55">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; 30020775,</v>
+      </c>
+      <c r="B56">
+        <v>20775</v>
+      </c>
+      <c r="C56">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; 15020950,</v>
+      </c>
+      <c r="B57">
+        <v>20950</v>
+      </c>
+      <c r="C57">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; 0020975,</v>
+      </c>
+      <c r="B58">
+        <v>20975</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; -15021825,</v>
+      </c>
+      <c r="B59">
+        <v>21825</v>
+      </c>
+      <c r="C59">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; -30021850,</v>
+      </c>
+      <c r="B60">
+        <v>21850</v>
+      </c>
+      <c r="C60">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="str">
+        <f t="shared" ref="A68:A131" si="1">CONCATENATE(IF(COUNT(E68)&gt;0,E68,"0"),", .Beacon 8021; -1; 0; ",TEXT(C68,"0"),TEXT(B68,"000000"),",")</f>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; -15000150,</v>
+      </c>
+      <c r="B74">
+        <v>150</v>
+      </c>
+      <c r="C74">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; -30000175,</v>
+      </c>
+      <c r="B75">
+        <v>175</v>
+      </c>
+      <c r="C75">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; -15000450,</v>
+      </c>
+      <c r="B76">
+        <v>450</v>
+      </c>
+      <c r="C76">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000475,</v>
+      </c>
+      <c r="B77">
+        <v>475</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 15002000,</v>
+      </c>
+      <c r="B78">
+        <v>2000</v>
+      </c>
+      <c r="C78">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 30002025,</v>
+      </c>
+      <c r="B79">
+        <v>2025</v>
+      </c>
+      <c r="C79">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 15002175,</v>
+      </c>
+      <c r="B80">
+        <v>2175</v>
+      </c>
+      <c r="C80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0002200,</v>
+      </c>
+      <c r="B81">
+        <v>2200</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 15003025,</v>
+      </c>
+      <c r="B82">
+        <v>3025</v>
+      </c>
+      <c r="C82">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 30003050,</v>
+      </c>
+      <c r="B83">
+        <v>3050</v>
+      </c>
+      <c r="C83">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 15003250,</v>
+      </c>
+      <c r="B84">
+        <v>3250</v>
+      </c>
+      <c r="C84">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0003275,</v>
+      </c>
+      <c r="B85">
+        <v>3275</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 15003975,</v>
+      </c>
+      <c r="B86">
+        <v>3975</v>
+      </c>
+      <c r="C86">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 30004000,</v>
+      </c>
+      <c r="B87">
+        <v>4000</v>
+      </c>
+      <c r="C87">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 15004195,</v>
+      </c>
+      <c r="B88">
+        <v>4195</v>
+      </c>
+      <c r="C88">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0004215,</v>
+      </c>
+      <c r="B89">
+        <v>4215</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; -15005575,</v>
+      </c>
+      <c r="B90">
+        <v>5575</v>
+      </c>
+      <c r="C90">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; -30005600,</v>
+      </c>
+      <c r="B91">
+        <v>5600</v>
+      </c>
+      <c r="C91">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; -15005850,</v>
+      </c>
+      <c r="B92">
+        <v>5850</v>
+      </c>
+      <c r="C92">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0005875,</v>
+      </c>
+      <c r="B93">
+        <v>5875</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 15006925,</v>
+      </c>
+      <c r="B94">
+        <v>6925</v>
+      </c>
+      <c r="C94">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 30006950,</v>
+      </c>
+      <c r="B95">
+        <v>6950</v>
+      </c>
+      <c r="C95">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 15007225,</v>
+      </c>
+      <c r="B96">
+        <v>7225</v>
+      </c>
+      <c r="C96">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0007250,</v>
+      </c>
+      <c r="B97">
+        <v>7250</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="str">
+        <f t="shared" ref="A132:A195" si="2">CONCATENATE(IF(COUNT(E132)&gt;0,E132,"0"),", .Beacon 8021; -1; 0; ",TEXT(C132,"0"),TEXT(B132,"000000"),",")</f>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="str">
+        <f t="shared" ref="A196:A255" si="3">CONCATENATE(IF(COUNT(E196)&gt;0,E196,"0"),", .Beacon 8021; -1; 0; ",TEXT(C196,"0"),TEXT(B196,"000000"),",")</f>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>0, .Beacon 8021; -1; 0; 0000000,</v>
       </c>
     </row>
   </sheetData>
